--- a/CMTFile/Computo_Ripianificato_TEST_SEC.xlsx
+++ b/CMTFile/Computo_Ripianificato_TEST_SEC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="620">
   <si>
     <t/>
   </si>
@@ -11769,10 +11769,10 @@
         <v>29</v>
       </c>
       <c r="E44" t="n" s="3">
-        <v>426.53</v>
+        <v>1344.93</v>
       </c>
       <c r="F44" t="n" s="3">
-        <v>12.01</v>
+        <v>31.01</v>
       </c>
       <c r="G44" t="n" s="3">
         <v>29.0</v>
@@ -11784,13 +11784,13 @@
         <v>12.0</v>
       </c>
       <c r="J44" t="n" s="3">
-        <v>538.64</v>
+        <v>1476.04</v>
       </c>
       <c r="K44" t="n" s="4">
         <v>2.1</v>
       </c>
       <c r="L44" t="n" s="5">
-        <v>1131.144</v>
+        <v>3099.6839999999997</v>
       </c>
     </row>
     <row r="45">
@@ -12351,8 +12351,8 @@
       <c r="E61" t="n" s="3">
         <v>0.0</v>
       </c>
-      <c r="F61" t="s" s="3">
-        <v>13</v>
+      <c r="F61" t="n" s="3">
+        <v>0.0</v>
       </c>
       <c r="G61" t="s" s="3">
         <v>13</v>

--- a/CMTFile/Computo_Ripianificato_TEST_SEC.xlsx
+++ b/CMTFile/Computo_Ripianificato_TEST_SEC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="620">
   <si>
     <t/>
   </si>
@@ -14064,7 +14064,7 @@
         <v>29</v>
       </c>
       <c r="E120" t="n" s="3">
-        <v>241.23</v>
+        <v>298.63</v>
       </c>
       <c r="F120" t="n" s="3">
         <v>399.48</v>
@@ -14079,13 +14079,13 @@
         <v>47.4</v>
       </c>
       <c r="J120" t="n" s="3">
-        <v>741.36</v>
+        <v>798.76</v>
       </c>
       <c r="K120" t="n" s="4">
         <v>0.61</v>
       </c>
       <c r="L120" t="n" s="5">
-        <v>452.2296</v>
+        <v>487.24359999999996</v>
       </c>
     </row>
     <row r="121">
@@ -14102,7 +14102,7 @@
         <v>29</v>
       </c>
       <c r="E121" t="n" s="3">
-        <v>246.9</v>
+        <v>189.5</v>
       </c>
       <c r="F121" t="n" s="3">
         <v>190.0</v>
@@ -14117,13 +14117,13 @@
         <v>159.12</v>
       </c>
       <c r="J121" t="n" s="3">
-        <v>950.47</v>
+        <v>893.07</v>
       </c>
       <c r="K121" t="n" s="4">
         <v>0.28</v>
       </c>
       <c r="L121" t="n" s="5">
-        <v>266.1316</v>
+        <v>250.05960000000005</v>
       </c>
     </row>
     <row r="122">
@@ -14405,29 +14405,29 @@
       <c r="D129" t="s" s="1">
         <v>29</v>
       </c>
-      <c r="E129" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="H129" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I129" t="s" s="3">
-        <v>13</v>
+      <c r="E129" t="n" s="3">
+        <v>258.94</v>
+      </c>
+      <c r="F129" t="n" s="3">
+        <v>399.48</v>
+      </c>
+      <c r="G129" t="n" s="3">
+        <v>52.25</v>
+      </c>
+      <c r="H129" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I129" t="n" s="3">
+        <v>38.5</v>
       </c>
       <c r="J129" t="n" s="3">
-        <v>0.0</v>
+        <v>750.17</v>
       </c>
       <c r="K129" t="n" s="4">
         <v>0.68</v>
       </c>
       <c r="L129" t="n" s="5">
-        <v>0.0</v>
+        <v>510.1156000000001</v>
       </c>
     </row>
     <row r="130">

--- a/CMTFile/Computo_Ripianificato_TEST_SEC.xlsx
+++ b/CMTFile/Computo_Ripianificato_TEST_SEC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="620">
   <si>
     <t/>
   </si>
@@ -11769,10 +11769,10 @@
         <v>29</v>
       </c>
       <c r="E44" t="n" s="3">
-        <v>426.53</v>
+        <v>1344.93</v>
       </c>
       <c r="F44" t="n" s="3">
-        <v>12.01</v>
+        <v>31.01</v>
       </c>
       <c r="G44" t="n" s="3">
         <v>29.0</v>
@@ -11784,13 +11784,13 @@
         <v>12.0</v>
       </c>
       <c r="J44" t="n" s="3">
-        <v>538.64</v>
+        <v>1476.04</v>
       </c>
       <c r="K44" t="n" s="4">
         <v>2.1</v>
       </c>
       <c r="L44" t="n" s="5">
-        <v>1131.144</v>
+        <v>3099.6839999999997</v>
       </c>
     </row>
     <row r="45">
@@ -12351,8 +12351,8 @@
       <c r="E61" t="n" s="3">
         <v>0.0</v>
       </c>
-      <c r="F61" t="s" s="3">
-        <v>13</v>
+      <c r="F61" t="n" s="3">
+        <v>0.0</v>
       </c>
       <c r="G61" t="s" s="3">
         <v>13</v>
